--- a/db/dummydata/schryver/schryver__local_charges.xlsx
+++ b/db/dummydata/schryver/schryver__local_charges.xlsx
@@ -227,10 +227,10 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -1517,17 +1517,17 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="8"/>
+      <c r="A43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
       <c r="S43" s="9"/>
     </row>
     <row r="44">
@@ -3083,7 +3083,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="6"/>
+      <c r="A43" s="7"/>
       <c r="C43" s="5" t="s">
         <v>42</v>
       </c>
@@ -5421,7 +5421,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="1">
       <c r="C2" s="5" t="s">
         <v>25</v>
       </c>
@@ -5456,7 +5456,7 @@
         <v>50.0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="1">
       <c r="C3" s="5" t="s">
         <v>25</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="1">
       <c r="C4" s="5" t="s">
         <v>25</v>
       </c>
@@ -5526,7 +5526,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="1">
       <c r="C5" s="5" t="s">
         <v>25</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>45.0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="1">
       <c r="C6" s="5" t="s">
         <v>25</v>
       </c>
@@ -5596,7 +5596,7 @@
         <v>90.0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="1">
       <c r="C7" s="5" t="s">
         <v>25</v>
       </c>
@@ -5631,7 +5631,7 @@
         <v>90.0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="1">
       <c r="C8" s="5" t="s">
         <v>25</v>
       </c>
@@ -5666,7 +5666,7 @@
         <v>190.0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="1">
       <c r="C9" s="5" t="s">
         <v>25</v>
       </c>
@@ -5701,7 +5701,7 @@
         <v>190.0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="1">
       <c r="C10" s="5" t="s">
         <v>25</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>190.0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="1">
       <c r="C11" s="5" t="s">
         <v>25</v>
       </c>
@@ -5771,7 +5771,7 @@
         <v>15.0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="1">
       <c r="C12" s="5" t="s">
         <v>25</v>
       </c>
@@ -5806,7 +5806,7 @@
         <v>15.0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="1">
       <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v>15.0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="1">
       <c r="C14" s="5" t="s">
         <v>40</v>
       </c>
@@ -5876,7 +5876,7 @@
         <v>30.0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="1">
       <c r="C15" s="5" t="s">
         <v>40</v>
       </c>
@@ -5911,7 +5911,7 @@
         <v>60.0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="1">
       <c r="C16" s="5" t="s">
         <v>40</v>
       </c>
@@ -5946,7 +5946,7 @@
         <v>60.0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="1">
       <c r="C17" s="5" t="s">
         <v>40</v>
       </c>
@@ -5981,7 +5981,7 @@
         <v>35.0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="1">
       <c r="C18" s="5" t="s">
         <v>40</v>
       </c>
@@ -6016,7 +6016,7 @@
         <v>70.0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="1">
       <c r="C19" s="5" t="s">
         <v>40</v>
       </c>
@@ -6051,7 +6051,7 @@
         <v>70.0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="1">
       <c r="C20" s="5" t="s">
         <v>40</v>
       </c>
@@ -6086,7 +6086,7 @@
         <v>180.0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="1">
       <c r="C21" s="5" t="s">
         <v>40</v>
       </c>
@@ -6121,7 +6121,7 @@
         <v>180.0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="1">
       <c r="C22" s="5" t="s">
         <v>40</v>
       </c>
@@ -6156,7 +6156,7 @@
         <v>180.0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="1">
       <c r="C23" s="5" t="s">
         <v>40</v>
       </c>
@@ -6191,7 +6191,7 @@
         <v>14.0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="1">
       <c r="C24" s="5" t="s">
         <v>40</v>
       </c>
@@ -6226,7 +6226,7 @@
         <v>14.0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="1">
       <c r="C25" s="5" t="s">
         <v>40</v>
       </c>
@@ -6261,7 +6261,7 @@
         <v>14.0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="1">
       <c r="C26" s="5" t="s">
         <v>41</v>
       </c>
@@ -6296,7 +6296,7 @@
         <v>50.0</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="1">
       <c r="C27" s="5" t="s">
         <v>41</v>
       </c>
@@ -6331,7 +6331,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="1">
       <c r="C28" s="5" t="s">
         <v>41</v>
       </c>
@@ -6366,7 +6366,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="1">
       <c r="C29" s="5" t="s">
         <v>41</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>190.0</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="1">
       <c r="C30" s="5" t="s">
         <v>41</v>
       </c>
@@ -6435,22 +6435,22 @@
       <c r="T30" s="5">
         <v>190.0</v>
       </c>
-      <c r="Z30" s="8"/>
-      <c r="AA30" s="8"/>
-      <c r="AB30" s="8"/>
-      <c r="AC30" s="8"/>
-      <c r="AD30" s="8"/>
-      <c r="AE30" s="8"/>
-      <c r="AF30" s="8"/>
-      <c r="AG30" s="8"/>
-      <c r="AH30" s="8"/>
-      <c r="AI30" s="8"/>
-      <c r="AJ30" s="8"/>
-      <c r="AK30" s="8"/>
-      <c r="AL30" s="8"/>
-      <c r="AM30" s="8"/>
-    </row>
-    <row r="31">
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="6"/>
+      <c r="AC30" s="6"/>
+      <c r="AD30" s="6"/>
+      <c r="AE30" s="6"/>
+      <c r="AF30" s="6"/>
+      <c r="AG30" s="6"/>
+      <c r="AH30" s="6"/>
+      <c r="AI30" s="6"/>
+      <c r="AJ30" s="6"/>
+      <c r="AK30" s="6"/>
+      <c r="AL30" s="6"/>
+      <c r="AM30" s="6"/>
+    </row>
+    <row r="31" hidden="1">
       <c r="C31" s="5" t="s">
         <v>41</v>
       </c>
@@ -6485,7 +6485,7 @@
         <v>190.0</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="1">
       <c r="C32" s="5" t="s">
         <v>41</v>
       </c>
@@ -6519,22 +6519,22 @@
       <c r="T32" s="5">
         <v>15.0</v>
       </c>
-      <c r="Z32" s="8"/>
-      <c r="AA32" s="8"/>
-      <c r="AB32" s="8"/>
-      <c r="AC32" s="8"/>
-      <c r="AD32" s="8"/>
-      <c r="AE32" s="8"/>
-      <c r="AF32" s="8"/>
-      <c r="AG32" s="8"/>
-      <c r="AH32" s="8"/>
-      <c r="AI32" s="8"/>
-      <c r="AJ32" s="8"/>
-      <c r="AK32" s="8"/>
-      <c r="AL32" s="8"/>
-      <c r="AM32" s="8"/>
-    </row>
-    <row r="33">
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="6"/>
+      <c r="AB32" s="6"/>
+      <c r="AC32" s="6"/>
+      <c r="AD32" s="6"/>
+      <c r="AE32" s="6"/>
+      <c r="AF32" s="6"/>
+      <c r="AG32" s="6"/>
+      <c r="AH32" s="6"/>
+      <c r="AI32" s="6"/>
+      <c r="AJ32" s="6"/>
+      <c r="AK32" s="6"/>
+      <c r="AL32" s="6"/>
+      <c r="AM32" s="6"/>
+    </row>
+    <row r="33" hidden="1">
       <c r="C33" s="5" t="s">
         <v>41</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>15.0</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="1">
       <c r="C34" s="5" t="s">
         <v>41</v>
       </c>
@@ -6640,27 +6640,27 @@
       <c r="T35" s="5">
         <v>395.0</v>
       </c>
-      <c r="U35" s="8"/>
-      <c r="V35" s="8"/>
-      <c r="W35" s="8"/>
-      <c r="X35" s="8"/>
-      <c r="Y35" s="8"/>
-      <c r="Z35" s="8"/>
-      <c r="AA35" s="8"/>
-      <c r="AB35" s="8"/>
-      <c r="AC35" s="8"/>
-      <c r="AD35" s="8"/>
-      <c r="AE35" s="8"/>
-      <c r="AF35" s="8"/>
-      <c r="AG35" s="8"/>
-      <c r="AH35" s="8"/>
-      <c r="AI35" s="8"/>
-      <c r="AJ35" s="8"/>
-      <c r="AK35" s="8"/>
-      <c r="AL35" s="8"/>
-      <c r="AM35" s="8"/>
-    </row>
-    <row r="36">
+      <c r="U35" s="6"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="6"/>
+      <c r="Z35" s="6"/>
+      <c r="AA35" s="6"/>
+      <c r="AB35" s="6"/>
+      <c r="AC35" s="6"/>
+      <c r="AD35" s="6"/>
+      <c r="AE35" s="6"/>
+      <c r="AF35" s="6"/>
+      <c r="AG35" s="6"/>
+      <c r="AH35" s="6"/>
+      <c r="AI35" s="6"/>
+      <c r="AJ35" s="6"/>
+      <c r="AK35" s="6"/>
+      <c r="AL35" s="6"/>
+      <c r="AM35" s="6"/>
+    </row>
+    <row r="36" hidden="1">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="5" t="s">
@@ -6696,27 +6696,27 @@
       <c r="T36" s="5">
         <v>790.0</v>
       </c>
-      <c r="U36" s="8"/>
-      <c r="V36" s="8"/>
-      <c r="W36" s="8"/>
-      <c r="X36" s="8"/>
-      <c r="Y36" s="8"/>
-      <c r="Z36" s="8"/>
-      <c r="AA36" s="8"/>
-      <c r="AB36" s="8"/>
-      <c r="AC36" s="8"/>
-      <c r="AD36" s="8"/>
-      <c r="AE36" s="8"/>
-      <c r="AF36" s="8"/>
-      <c r="AG36" s="8"/>
-      <c r="AH36" s="8"/>
-      <c r="AI36" s="8"/>
-      <c r="AJ36" s="8"/>
-      <c r="AK36" s="8"/>
-      <c r="AL36" s="8"/>
-      <c r="AM36" s="8"/>
-    </row>
-    <row r="37">
+      <c r="U36" s="6"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="6"/>
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="6"/>
+      <c r="AA36" s="6"/>
+      <c r="AB36" s="6"/>
+      <c r="AC36" s="6"/>
+      <c r="AD36" s="6"/>
+      <c r="AE36" s="6"/>
+      <c r="AF36" s="6"/>
+      <c r="AG36" s="6"/>
+      <c r="AH36" s="6"/>
+      <c r="AI36" s="6"/>
+      <c r="AJ36" s="6"/>
+      <c r="AK36" s="6"/>
+      <c r="AL36" s="6"/>
+      <c r="AM36" s="6"/>
+    </row>
+    <row r="37" hidden="1">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="5" t="s">
@@ -6790,7 +6790,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="1">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="5" t="s">
@@ -6827,7 +6827,7 @@
         <v>84.0</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="1">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="5" t="s">
@@ -6899,7 +6899,7 @@
         <v>35.0</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="1">
       <c r="C42" s="5" t="s">
         <v>42</v>
       </c>
@@ -6934,7 +6934,7 @@
         <v>35.0</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="1">
       <c r="C43" s="5" t="s">
         <v>42</v>
       </c>
@@ -7004,7 +7004,7 @@
         <v>55.0</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="1">
       <c r="C45" s="5" t="s">
         <v>42</v>
       </c>
@@ -7039,7 +7039,7 @@
         <v>110.0</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="1">
       <c r="C46" s="5" t="s">
         <v>42</v>
       </c>
@@ -7109,7 +7109,7 @@
         <v>35.0</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="1">
       <c r="C48" s="5" t="s">
         <v>25</v>
       </c>
@@ -7144,7 +7144,7 @@
         <v>70.0</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="1">
       <c r="C49" s="5" t="s">
         <v>25</v>
       </c>
@@ -7214,7 +7214,7 @@
         <v>32.0</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="1">
       <c r="C51" s="5" t="s">
         <v>25</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>32.0</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="1">
       <c r="C52" s="5" t="s">
         <v>25</v>
       </c>
@@ -7319,7 +7319,7 @@
         <v>55.0</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="1">
       <c r="C54" s="5" t="s">
         <v>25</v>
       </c>
@@ -7354,7 +7354,7 @@
         <v>110.0</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="1">
       <c r="C55" s="5" t="s">
         <v>25</v>
       </c>
@@ -7424,7 +7424,7 @@
         <v>90.0</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="1">
       <c r="C57" s="5" t="s">
         <v>47</v>
       </c>
@@ -7459,7 +7459,7 @@
         <v>180.0</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="1">
       <c r="C58" s="5" t="s">
         <v>47</v>
       </c>
@@ -7529,7 +7529,7 @@
         <v>35.0</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="1">
       <c r="C60" s="5" t="s">
         <v>47</v>
       </c>
@@ -7564,7 +7564,7 @@
         <v>35.0</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="1">
       <c r="C61" s="5" t="s">
         <v>47</v>
       </c>
@@ -7634,7 +7634,7 @@
         <v>60.0</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="1">
       <c r="C63" s="5" t="s">
         <v>47</v>
       </c>
@@ -7669,7 +7669,7 @@
         <v>120.0</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="1">
       <c r="C64" s="5" t="s">
         <v>47</v>
       </c>
@@ -7739,7 +7739,7 @@
         <v>205.0</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="1">
       <c r="C66" s="5" t="s">
         <v>48</v>
       </c>
@@ -7774,7 +7774,7 @@
         <v>410.0</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="1">
       <c r="C67" s="5" t="s">
         <v>48</v>
       </c>
@@ -7844,7 +7844,7 @@
         <v>35.0</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="1">
       <c r="C69" s="5" t="s">
         <v>48</v>
       </c>
@@ -7879,7 +7879,7 @@
         <v>35.0</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="1">
       <c r="C70" s="5" t="s">
         <v>48</v>
       </c>
@@ -7914,7 +7914,7 @@
         <v>35.0</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="1">
       <c r="C71" s="5" t="s">
         <v>42</v>
       </c>
@@ -7949,7 +7949,7 @@
         <v>395.0</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="1">
       <c r="C72" s="5" t="s">
         <v>42</v>
       </c>
@@ -7984,7 +7984,7 @@
         <v>790.0</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="1">
       <c r="C73" s="5" t="s">
         <v>42</v>
       </c>
@@ -8019,7 +8019,7 @@
         <v>790.0</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="1">
       <c r="C74" s="5" t="s">
         <v>42</v>
       </c>
@@ -8054,7 +8054,7 @@
         <v>42.0</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" hidden="1">
       <c r="C75" s="5" t="s">
         <v>42</v>
       </c>
@@ -8089,7 +8089,7 @@
         <v>84.0</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" hidden="1">
       <c r="C76" s="5" t="s">
         <v>42</v>
       </c>
@@ -8124,7 +8124,7 @@
         <v>84.0</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" hidden="1">
       <c r="C77" s="5" t="s">
         <v>42</v>
       </c>
@@ -8159,7 +8159,7 @@
         <v>35.0</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" hidden="1">
       <c r="C78" s="5" t="s">
         <v>42</v>
       </c>
@@ -8194,7 +8194,7 @@
         <v>35.0</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" hidden="1">
       <c r="C79" s="5" t="s">
         <v>42</v>
       </c>
@@ -8229,7 +8229,7 @@
         <v>35.0</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" hidden="1">
       <c r="C80" s="5" t="s">
         <v>42</v>
       </c>
@@ -8264,7 +8264,7 @@
         <v>55.0</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" hidden="1">
       <c r="C81" s="5" t="s">
         <v>42</v>
       </c>
@@ -8299,7 +8299,7 @@
         <v>110.0</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" hidden="1">
       <c r="C82" s="5" t="s">
         <v>42</v>
       </c>
@@ -8334,7 +8334,7 @@
         <v>110.0</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" hidden="1">
       <c r="C83" s="5" t="s">
         <v>25</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>35.0</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" hidden="1">
       <c r="C84" s="5" t="s">
         <v>25</v>
       </c>
@@ -8404,7 +8404,7 @@
         <v>70.0</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" hidden="1">
       <c r="C85" s="5" t="s">
         <v>25</v>
       </c>
@@ -8439,7 +8439,7 @@
         <v>70.0</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" hidden="1">
       <c r="C86" s="5" t="s">
         <v>25</v>
       </c>
@@ -8474,7 +8474,7 @@
         <v>32.0</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" hidden="1">
       <c r="C87" s="5" t="s">
         <v>25</v>
       </c>
@@ -8509,7 +8509,7 @@
         <v>32.0</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" hidden="1">
       <c r="C88" s="5" t="s">
         <v>25</v>
       </c>
@@ -8544,7 +8544,7 @@
         <v>32.0</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" hidden="1">
       <c r="C89" s="5" t="s">
         <v>25</v>
       </c>
@@ -8579,7 +8579,7 @@
         <v>55.0</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" hidden="1">
       <c r="C90" s="5" t="s">
         <v>25</v>
       </c>
@@ -8614,7 +8614,7 @@
         <v>110.0</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" hidden="1">
       <c r="C91" s="5" t="s">
         <v>25</v>
       </c>
@@ -8649,7 +8649,7 @@
         <v>110.0</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" hidden="1">
       <c r="C92" s="5" t="s">
         <v>47</v>
       </c>
@@ -8684,7 +8684,7 @@
         <v>90.0</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" hidden="1">
       <c r="C93" s="5" t="s">
         <v>47</v>
       </c>
@@ -8719,7 +8719,7 @@
         <v>180.0</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" hidden="1">
       <c r="C94" s="5" t="s">
         <v>47</v>
       </c>
@@ -8754,7 +8754,7 @@
         <v>180.0</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" hidden="1">
       <c r="C95" s="5" t="s">
         <v>47</v>
       </c>
@@ -8789,7 +8789,7 @@
         <v>35.0</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" hidden="1">
       <c r="C96" s="5" t="s">
         <v>47</v>
       </c>
@@ -8824,7 +8824,7 @@
         <v>35.0</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" hidden="1">
       <c r="C97" s="5" t="s">
         <v>47</v>
       </c>
@@ -8859,7 +8859,7 @@
         <v>35.0</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" hidden="1">
       <c r="C98" s="5" t="s">
         <v>47</v>
       </c>
@@ -8894,7 +8894,7 @@
         <v>60.0</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" hidden="1">
       <c r="C99" s="5" t="s">
         <v>47</v>
       </c>
@@ -8929,7 +8929,7 @@
         <v>120.0</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" hidden="1">
       <c r="C100" s="5" t="s">
         <v>47</v>
       </c>
@@ -8964,7 +8964,7 @@
         <v>120.0</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" hidden="1">
       <c r="C101" s="5" t="s">
         <v>48</v>
       </c>
@@ -8999,7 +8999,7 @@
         <v>205.0</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" hidden="1">
       <c r="C102" s="5" t="s">
         <v>48</v>
       </c>
@@ -9034,7 +9034,7 @@
         <v>410.0</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" hidden="1">
       <c r="C103" s="5" t="s">
         <v>48</v>
       </c>
@@ -9069,7 +9069,7 @@
         <v>410.0</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" hidden="1">
       <c r="C104" s="5" t="s">
         <v>48</v>
       </c>
@@ -9104,7 +9104,7 @@
         <v>35.0</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" hidden="1">
       <c r="C105" s="5" t="s">
         <v>48</v>
       </c>
@@ -9139,7 +9139,7 @@
         <v>35.0</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" hidden="1">
       <c r="C106" s="5" t="s">
         <v>48</v>
       </c>
@@ -9175,7 +9175,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$V$106"/>
+  <autoFilter ref="$A$1:$V$106">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="fcl_20"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Altamira"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/db/dummydata/schryver/schryver__local_charges.xlsx
+++ b/db/dummydata/schryver/schryver__local_charges.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2505" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2537" uniqueCount="62">
   <si>
     <t>EFFECTIVE_DATE</t>
   </si>
@@ -143,13 +143,49 @@
     <t>COSCO</t>
   </si>
   <si>
+    <t>Wharfage</t>
+  </si>
+  <si>
+    <t>WHF</t>
+  </si>
+  <si>
+    <t>lcl</t>
+  </si>
+  <si>
+    <t>PER_TON</t>
+  </si>
+  <si>
+    <t>LCL Charges</t>
+  </si>
+  <si>
     <t>Hapag Lloyd</t>
+  </si>
+  <si>
+    <t>LCL</t>
   </si>
   <si>
     <t>Altamira</t>
   </si>
   <si>
     <t>BAF</t>
+  </si>
+  <si>
+    <t>PER_WM</t>
+  </si>
+  <si>
+    <t>Customs Clearance</t>
+  </si>
+  <si>
+    <t>EXC</t>
+  </si>
+  <si>
+    <t>PER_SHIPMENT</t>
+  </si>
+  <si>
+    <t>VGM Fee</t>
+  </si>
+  <si>
+    <t>VGM</t>
   </si>
   <si>
     <t>AMS</t>
@@ -227,10 +263,10 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -1516,18 +1552,134 @@
         <v>14.0</v>
       </c>
     </row>
+    <row r="35">
+      <c r="E35" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M35" s="5">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="E36" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O36" s="5">
+        <v>13.55</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="E37" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R37" s="5">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="E38" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R38" s="5">
+        <v>10.0</v>
+      </c>
+    </row>
     <row r="43">
-      <c r="A43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
+      <c r="A43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
       <c r="S43" s="9"/>
     </row>
     <row r="44">
@@ -2804,22 +2956,22 @@
     </row>
     <row r="35">
       <c r="C35" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>30</v>
@@ -2839,22 +2991,22 @@
     </row>
     <row r="36">
       <c r="C36" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I36" s="5" t="s">
         <v>34</v>
@@ -2874,22 +3026,22 @@
     </row>
     <row r="37">
       <c r="C37" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>35</v>
@@ -2909,10 +3061,10 @@
     </row>
     <row r="38">
       <c r="C38" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>27</v>
@@ -2944,10 +3096,10 @@
     </row>
     <row r="39">
       <c r="C39" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>27</v>
@@ -2979,10 +3131,10 @@
     </row>
     <row r="40">
       <c r="C40" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>27</v>
@@ -3014,22 +3166,22 @@
     </row>
     <row r="41">
       <c r="C41" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>30</v>
@@ -3049,22 +3201,22 @@
     </row>
     <row r="42">
       <c r="C42" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I42" s="5" t="s">
         <v>34</v>
@@ -3083,24 +3235,24 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="7"/>
+      <c r="A43" s="6"/>
       <c r="C43" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>35</v>
@@ -3122,22 +3274,22 @@
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="I44" s="5" t="s">
         <v>30</v>
@@ -3157,22 +3309,22 @@
     </row>
     <row r="45">
       <c r="C45" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>34</v>
@@ -3192,22 +3344,22 @@
     </row>
     <row r="46">
       <c r="C46" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="I46" s="5" t="s">
         <v>35</v>
@@ -3230,7 +3382,7 @@
         <v>25</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>27</v>
@@ -3265,7 +3417,7 @@
         <v>25</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>27</v>
@@ -3300,7 +3452,7 @@
         <v>25</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>27</v>
@@ -3335,19 +3487,19 @@
         <v>25</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I50" s="5" t="s">
         <v>30</v>
@@ -3370,19 +3522,19 @@
         <v>25</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I51" s="5" t="s">
         <v>34</v>
@@ -3405,19 +3557,19 @@
         <v>25</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I52" s="5" t="s">
         <v>35</v>
@@ -3440,19 +3592,19 @@
         <v>25</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="I53" s="5" t="s">
         <v>30</v>
@@ -3475,19 +3627,19 @@
         <v>25</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="I54" s="5" t="s">
         <v>34</v>
@@ -3510,19 +3662,19 @@
         <v>25</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="I55" s="5" t="s">
         <v>35</v>
@@ -3542,10 +3694,10 @@
     </row>
     <row r="56">
       <c r="C56" s="5" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>27</v>
@@ -3577,10 +3729,10 @@
     </row>
     <row r="57">
       <c r="C57" s="5" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>27</v>
@@ -3612,10 +3764,10 @@
     </row>
     <row r="58">
       <c r="C58" s="5" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>27</v>
@@ -3647,22 +3799,22 @@
     </row>
     <row r="59">
       <c r="C59" s="5" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G59" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I59" s="5" t="s">
         <v>30</v>
@@ -3682,22 +3834,22 @@
     </row>
     <row r="60">
       <c r="C60" s="5" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I60" s="5" t="s">
         <v>34</v>
@@ -3717,22 +3869,22 @@
     </row>
     <row r="61">
       <c r="C61" s="5" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G61" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I61" s="5" t="s">
         <v>35</v>
@@ -3752,22 +3904,22 @@
     </row>
     <row r="62">
       <c r="C62" s="5" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="I62" s="5" t="s">
         <v>30</v>
@@ -3787,22 +3939,22 @@
     </row>
     <row r="63">
       <c r="C63" s="5" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="I63" s="5" t="s">
         <v>34</v>
@@ -3822,22 +3974,22 @@
     </row>
     <row r="64">
       <c r="C64" s="5" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="G64" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="I64" s="5" t="s">
         <v>35</v>
@@ -3857,22 +4009,22 @@
     </row>
     <row r="65">
       <c r="C65" s="5" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G65" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I65" s="5" t="s">
         <v>30</v>
@@ -3892,22 +4044,22 @@
     </row>
     <row r="66">
       <c r="C66" s="5" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I66" s="5" t="s">
         <v>34</v>
@@ -3927,22 +4079,22 @@
     </row>
     <row r="67">
       <c r="C67" s="5" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I67" s="5" t="s">
         <v>35</v>
@@ -3962,22 +4114,22 @@
     </row>
     <row r="68">
       <c r="C68" s="5" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G68" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I68" s="5" t="s">
         <v>30</v>
@@ -3997,22 +4149,22 @@
     </row>
     <row r="69">
       <c r="C69" s="5" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I69" s="5" t="s">
         <v>34</v>
@@ -4032,22 +4184,22 @@
     </row>
     <row r="70">
       <c r="C70" s="5" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G70" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I70" s="5" t="s">
         <v>35</v>
@@ -4067,22 +4219,22 @@
     </row>
     <row r="71">
       <c r="C71" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G71" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I71" s="5" t="s">
         <v>30</v>
@@ -4102,22 +4254,22 @@
     </row>
     <row r="72">
       <c r="C72" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G72" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I72" s="5" t="s">
         <v>34</v>
@@ -4137,22 +4289,22 @@
     </row>
     <row r="73">
       <c r="C73" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G73" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I73" s="5" t="s">
         <v>35</v>
@@ -4172,10 +4324,10 @@
     </row>
     <row r="74">
       <c r="C74" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>27</v>
@@ -4207,10 +4359,10 @@
     </row>
     <row r="75">
       <c r="C75" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>27</v>
@@ -4242,10 +4394,10 @@
     </row>
     <row r="76">
       <c r="C76" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>27</v>
@@ -4277,22 +4429,22 @@
     </row>
     <row r="77">
       <c r="C77" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G77" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I77" s="5" t="s">
         <v>30</v>
@@ -4312,22 +4464,22 @@
     </row>
     <row r="78">
       <c r="C78" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G78" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I78" s="5" t="s">
         <v>34</v>
@@ -4347,22 +4499,22 @@
     </row>
     <row r="79">
       <c r="C79" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G79" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I79" s="5" t="s">
         <v>35</v>
@@ -4382,22 +4534,22 @@
     </row>
     <row r="80">
       <c r="C80" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="G80" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="I80" s="5" t="s">
         <v>30</v>
@@ -4417,22 +4569,22 @@
     </row>
     <row r="81">
       <c r="C81" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="G81" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="I81" s="5" t="s">
         <v>34</v>
@@ -4452,22 +4604,22 @@
     </row>
     <row r="82">
       <c r="C82" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="G82" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="I82" s="5" t="s">
         <v>35</v>
@@ -4490,7 +4642,7 @@
         <v>25</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>27</v>
@@ -4525,7 +4677,7 @@
         <v>25</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>27</v>
@@ -4560,7 +4712,7 @@
         <v>25</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>27</v>
@@ -4595,19 +4747,19 @@
         <v>25</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G86" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I86" s="5" t="s">
         <v>30</v>
@@ -4630,19 +4782,19 @@
         <v>25</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G87" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I87" s="5" t="s">
         <v>34</v>
@@ -4665,19 +4817,19 @@
         <v>25</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G88" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I88" s="5" t="s">
         <v>35</v>
@@ -4700,19 +4852,19 @@
         <v>25</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="G89" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="I89" s="5" t="s">
         <v>30</v>
@@ -4735,19 +4887,19 @@
         <v>25</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E90" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="G90" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="I90" s="5" t="s">
         <v>34</v>
@@ -4770,19 +4922,19 @@
         <v>25</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E91" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="G91" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="I91" s="5" t="s">
         <v>35</v>
@@ -4802,10 +4954,10 @@
     </row>
     <row r="92">
       <c r="C92" s="5" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E92" s="5" t="s">
         <v>27</v>
@@ -4837,10 +4989,10 @@
     </row>
     <row r="93">
       <c r="C93" s="5" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E93" s="5" t="s">
         <v>27</v>
@@ -4872,10 +5024,10 @@
     </row>
     <row r="94">
       <c r="C94" s="5" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>27</v>
@@ -4907,22 +5059,22 @@
     </row>
     <row r="95">
       <c r="C95" s="5" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E95" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G95" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I95" s="5" t="s">
         <v>30</v>
@@ -4942,22 +5094,22 @@
     </row>
     <row r="96">
       <c r="C96" s="5" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E96" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G96" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I96" s="5" t="s">
         <v>34</v>
@@ -4977,22 +5129,22 @@
     </row>
     <row r="97">
       <c r="C97" s="5" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E97" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G97" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I97" s="5" t="s">
         <v>35</v>
@@ -5012,22 +5164,22 @@
     </row>
     <row r="98">
       <c r="C98" s="5" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E98" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="G98" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="I98" s="5" t="s">
         <v>30</v>
@@ -5047,22 +5199,22 @@
     </row>
     <row r="99">
       <c r="C99" s="5" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E99" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="G99" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="I99" s="5" t="s">
         <v>34</v>
@@ -5082,22 +5234,22 @@
     </row>
     <row r="100">
       <c r="C100" s="5" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E100" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="G100" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="I100" s="5" t="s">
         <v>35</v>
@@ -5117,22 +5269,22 @@
     </row>
     <row r="101">
       <c r="C101" s="5" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E101" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G101" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I101" s="5" t="s">
         <v>30</v>
@@ -5152,22 +5304,22 @@
     </row>
     <row r="102">
       <c r="C102" s="5" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E102" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G102" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I102" s="5" t="s">
         <v>34</v>
@@ -5187,22 +5339,22 @@
     </row>
     <row r="103">
       <c r="C103" s="5" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E103" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G103" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I103" s="5" t="s">
         <v>35</v>
@@ -5222,22 +5374,22 @@
     </row>
     <row r="104">
       <c r="C104" s="5" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E104" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G104" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I104" s="5" t="s">
         <v>30</v>
@@ -5257,22 +5409,22 @@
     </row>
     <row r="105">
       <c r="C105" s="5" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E105" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G105" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I105" s="5" t="s">
         <v>34</v>
@@ -5292,22 +5444,22 @@
     </row>
     <row r="106">
       <c r="C106" s="5" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E106" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G106" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I106" s="5" t="s">
         <v>35</v>
@@ -6435,20 +6587,20 @@
       <c r="T30" s="5">
         <v>190.0</v>
       </c>
-      <c r="Z30" s="6"/>
-      <c r="AA30" s="6"/>
-      <c r="AB30" s="6"/>
-      <c r="AC30" s="6"/>
-      <c r="AD30" s="6"/>
-      <c r="AE30" s="6"/>
-      <c r="AF30" s="6"/>
-      <c r="AG30" s="6"/>
-      <c r="AH30" s="6"/>
-      <c r="AI30" s="6"/>
-      <c r="AJ30" s="6"/>
-      <c r="AK30" s="6"/>
-      <c r="AL30" s="6"/>
-      <c r="AM30" s="6"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="8"/>
+      <c r="AD30" s="8"/>
+      <c r="AE30" s="8"/>
+      <c r="AF30" s="8"/>
+      <c r="AG30" s="8"/>
+      <c r="AH30" s="8"/>
+      <c r="AI30" s="8"/>
+      <c r="AJ30" s="8"/>
+      <c r="AK30" s="8"/>
+      <c r="AL30" s="8"/>
+      <c r="AM30" s="8"/>
     </row>
     <row r="31" hidden="1">
       <c r="C31" s="5" t="s">
@@ -6519,20 +6671,20 @@
       <c r="T32" s="5">
         <v>15.0</v>
       </c>
-      <c r="Z32" s="6"/>
-      <c r="AA32" s="6"/>
-      <c r="AB32" s="6"/>
-      <c r="AC32" s="6"/>
-      <c r="AD32" s="6"/>
-      <c r="AE32" s="6"/>
-      <c r="AF32" s="6"/>
-      <c r="AG32" s="6"/>
-      <c r="AH32" s="6"/>
-      <c r="AI32" s="6"/>
-      <c r="AJ32" s="6"/>
-      <c r="AK32" s="6"/>
-      <c r="AL32" s="6"/>
-      <c r="AM32" s="6"/>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="8"/>
+      <c r="AC32" s="8"/>
+      <c r="AD32" s="8"/>
+      <c r="AE32" s="8"/>
+      <c r="AF32" s="8"/>
+      <c r="AG32" s="8"/>
+      <c r="AH32" s="8"/>
+      <c r="AI32" s="8"/>
+      <c r="AJ32" s="8"/>
+      <c r="AK32" s="8"/>
+      <c r="AL32" s="8"/>
+      <c r="AM32" s="8"/>
     </row>
     <row r="33" hidden="1">
       <c r="C33" s="5" t="s">
@@ -6608,22 +6760,22 @@
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>30</v>
@@ -6640,46 +6792,46 @@
       <c r="T35" s="5">
         <v>395.0</v>
       </c>
-      <c r="U35" s="6"/>
-      <c r="V35" s="6"/>
-      <c r="W35" s="6"/>
-      <c r="X35" s="6"/>
-      <c r="Y35" s="6"/>
-      <c r="Z35" s="6"/>
-      <c r="AA35" s="6"/>
-      <c r="AB35" s="6"/>
-      <c r="AC35" s="6"/>
-      <c r="AD35" s="6"/>
-      <c r="AE35" s="6"/>
-      <c r="AF35" s="6"/>
-      <c r="AG35" s="6"/>
-      <c r="AH35" s="6"/>
-      <c r="AI35" s="6"/>
-      <c r="AJ35" s="6"/>
-      <c r="AK35" s="6"/>
-      <c r="AL35" s="6"/>
-      <c r="AM35" s="6"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="8"/>
+      <c r="AB35" s="8"/>
+      <c r="AC35" s="8"/>
+      <c r="AD35" s="8"/>
+      <c r="AE35" s="8"/>
+      <c r="AF35" s="8"/>
+      <c r="AG35" s="8"/>
+      <c r="AH35" s="8"/>
+      <c r="AI35" s="8"/>
+      <c r="AJ35" s="8"/>
+      <c r="AK35" s="8"/>
+      <c r="AL35" s="8"/>
+      <c r="AM35" s="8"/>
     </row>
     <row r="36" hidden="1">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I36" s="5" t="s">
         <v>34</v>
@@ -6696,46 +6848,46 @@
       <c r="T36" s="5">
         <v>790.0</v>
       </c>
-      <c r="U36" s="6"/>
-      <c r="V36" s="6"/>
-      <c r="W36" s="6"/>
-      <c r="X36" s="6"/>
-      <c r="Y36" s="6"/>
-      <c r="Z36" s="6"/>
-      <c r="AA36" s="6"/>
-      <c r="AB36" s="6"/>
-      <c r="AC36" s="6"/>
-      <c r="AD36" s="6"/>
-      <c r="AE36" s="6"/>
-      <c r="AF36" s="6"/>
-      <c r="AG36" s="6"/>
-      <c r="AH36" s="6"/>
-      <c r="AI36" s="6"/>
-      <c r="AJ36" s="6"/>
-      <c r="AK36" s="6"/>
-      <c r="AL36" s="6"/>
-      <c r="AM36" s="6"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="8"/>
+      <c r="AC36" s="8"/>
+      <c r="AD36" s="8"/>
+      <c r="AE36" s="8"/>
+      <c r="AF36" s="8"/>
+      <c r="AG36" s="8"/>
+      <c r="AH36" s="8"/>
+      <c r="AI36" s="8"/>
+      <c r="AJ36" s="8"/>
+      <c r="AK36" s="8"/>
+      <c r="AL36" s="8"/>
+      <c r="AM36" s="8"/>
     </row>
     <row r="37" hidden="1">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>35</v>
@@ -6757,10 +6909,10 @@
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>27</v>
@@ -6794,10 +6946,10 @@
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>27</v>
@@ -6831,10 +6983,10 @@
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>27</v>
@@ -6866,22 +7018,22 @@
     </row>
     <row r="41">
       <c r="C41" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>30</v>
@@ -6901,22 +7053,22 @@
     </row>
     <row r="42" hidden="1">
       <c r="C42" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I42" s="5" t="s">
         <v>34</v>
@@ -6936,22 +7088,22 @@
     </row>
     <row r="43" hidden="1">
       <c r="C43" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>35</v>
@@ -6971,22 +7123,22 @@
     </row>
     <row r="44">
       <c r="C44" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="I44" s="5" t="s">
         <v>30</v>
@@ -7006,22 +7158,22 @@
     </row>
     <row r="45" hidden="1">
       <c r="C45" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>34</v>
@@ -7041,22 +7193,22 @@
     </row>
     <row r="46" hidden="1">
       <c r="C46" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="I46" s="5" t="s">
         <v>35</v>
@@ -7079,7 +7231,7 @@
         <v>25</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>27</v>
@@ -7114,7 +7266,7 @@
         <v>25</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>27</v>
@@ -7149,7 +7301,7 @@
         <v>25</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>27</v>
@@ -7184,19 +7336,19 @@
         <v>25</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I50" s="5" t="s">
         <v>30</v>
@@ -7219,19 +7371,19 @@
         <v>25</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I51" s="5" t="s">
         <v>34</v>
@@ -7254,19 +7406,19 @@
         <v>25</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I52" s="5" t="s">
         <v>35</v>
@@ -7289,19 +7441,19 @@
         <v>25</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="I53" s="5" t="s">
         <v>30</v>
@@ -7324,19 +7476,19 @@
         <v>25</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="I54" s="5" t="s">
         <v>34</v>
@@ -7359,19 +7511,19 @@
         <v>25</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="I55" s="5" t="s">
         <v>35</v>
@@ -7391,10 +7543,10 @@
     </row>
     <row r="56">
       <c r="C56" s="5" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>27</v>
@@ -7426,10 +7578,10 @@
     </row>
     <row r="57" hidden="1">
       <c r="C57" s="5" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>27</v>
@@ -7461,10 +7613,10 @@
     </row>
     <row r="58" hidden="1">
       <c r="C58" s="5" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>27</v>
@@ -7496,22 +7648,22 @@
     </row>
     <row r="59">
       <c r="C59" s="5" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G59" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I59" s="5" t="s">
         <v>30</v>
@@ -7531,22 +7683,22 @@
     </row>
     <row r="60" hidden="1">
       <c r="C60" s="5" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I60" s="5" t="s">
         <v>34</v>
@@ -7566,22 +7718,22 @@
     </row>
     <row r="61" hidden="1">
       <c r="C61" s="5" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G61" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I61" s="5" t="s">
         <v>35</v>
@@ -7601,22 +7753,22 @@
     </row>
     <row r="62">
       <c r="C62" s="5" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="I62" s="5" t="s">
         <v>30</v>
@@ -7636,22 +7788,22 @@
     </row>
     <row r="63" hidden="1">
       <c r="C63" s="5" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="I63" s="5" t="s">
         <v>34</v>
@@ -7671,22 +7823,22 @@
     </row>
     <row r="64" hidden="1">
       <c r="C64" s="5" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="G64" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="I64" s="5" t="s">
         <v>35</v>
@@ -7706,22 +7858,22 @@
     </row>
     <row r="65">
       <c r="C65" s="5" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G65" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I65" s="5" t="s">
         <v>30</v>
@@ -7741,22 +7893,22 @@
     </row>
     <row r="66" hidden="1">
       <c r="C66" s="5" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I66" s="5" t="s">
         <v>34</v>
@@ -7776,22 +7928,22 @@
     </row>
     <row r="67" hidden="1">
       <c r="C67" s="5" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I67" s="5" t="s">
         <v>35</v>
@@ -7811,22 +7963,22 @@
     </row>
     <row r="68">
       <c r="C68" s="5" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G68" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I68" s="5" t="s">
         <v>30</v>
@@ -7846,22 +7998,22 @@
     </row>
     <row r="69" hidden="1">
       <c r="C69" s="5" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I69" s="5" t="s">
         <v>34</v>
@@ -7881,22 +8033,22 @@
     </row>
     <row r="70" hidden="1">
       <c r="C70" s="5" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G70" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I70" s="5" t="s">
         <v>35</v>
@@ -7916,22 +8068,22 @@
     </row>
     <row r="71" hidden="1">
       <c r="C71" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G71" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I71" s="5" t="s">
         <v>30</v>
@@ -7951,22 +8103,22 @@
     </row>
     <row r="72" hidden="1">
       <c r="C72" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G72" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I72" s="5" t="s">
         <v>34</v>
@@ -7986,22 +8138,22 @@
     </row>
     <row r="73" hidden="1">
       <c r="C73" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G73" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I73" s="5" t="s">
         <v>35</v>
@@ -8021,10 +8173,10 @@
     </row>
     <row r="74" hidden="1">
       <c r="C74" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>27</v>
@@ -8056,10 +8208,10 @@
     </row>
     <row r="75" hidden="1">
       <c r="C75" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>27</v>
@@ -8091,10 +8243,10 @@
     </row>
     <row r="76" hidden="1">
       <c r="C76" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>27</v>
@@ -8126,22 +8278,22 @@
     </row>
     <row r="77" hidden="1">
       <c r="C77" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G77" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I77" s="5" t="s">
         <v>30</v>
@@ -8161,22 +8313,22 @@
     </row>
     <row r="78" hidden="1">
       <c r="C78" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G78" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I78" s="5" t="s">
         <v>34</v>
@@ -8196,22 +8348,22 @@
     </row>
     <row r="79" hidden="1">
       <c r="C79" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G79" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I79" s="5" t="s">
         <v>35</v>
@@ -8231,22 +8383,22 @@
     </row>
     <row r="80" hidden="1">
       <c r="C80" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="G80" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="I80" s="5" t="s">
         <v>30</v>
@@ -8266,22 +8418,22 @@
     </row>
     <row r="81" hidden="1">
       <c r="C81" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="G81" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="I81" s="5" t="s">
         <v>34</v>
@@ -8301,22 +8453,22 @@
     </row>
     <row r="82" hidden="1">
       <c r="C82" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="G82" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="I82" s="5" t="s">
         <v>35</v>
@@ -8339,7 +8491,7 @@
         <v>25</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>27</v>
@@ -8374,7 +8526,7 @@
         <v>25</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>27</v>
@@ -8409,7 +8561,7 @@
         <v>25</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>27</v>
@@ -8444,19 +8596,19 @@
         <v>25</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G86" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I86" s="5" t="s">
         <v>30</v>
@@ -8479,19 +8631,19 @@
         <v>25</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G87" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I87" s="5" t="s">
         <v>34</v>
@@ -8514,19 +8666,19 @@
         <v>25</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G88" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I88" s="5" t="s">
         <v>35</v>
@@ -8549,19 +8701,19 @@
         <v>25</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="G89" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="I89" s="5" t="s">
         <v>30</v>
@@ -8584,19 +8736,19 @@
         <v>25</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E90" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="G90" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="I90" s="5" t="s">
         <v>34</v>
@@ -8619,19 +8771,19 @@
         <v>25</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E91" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="G91" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="I91" s="5" t="s">
         <v>35</v>
@@ -8651,10 +8803,10 @@
     </row>
     <row r="92" hidden="1">
       <c r="C92" s="5" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E92" s="5" t="s">
         <v>27</v>
@@ -8686,10 +8838,10 @@
     </row>
     <row r="93" hidden="1">
       <c r="C93" s="5" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E93" s="5" t="s">
         <v>27</v>
@@ -8721,10 +8873,10 @@
     </row>
     <row r="94" hidden="1">
       <c r="C94" s="5" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>27</v>
@@ -8756,22 +8908,22 @@
     </row>
     <row r="95" hidden="1">
       <c r="C95" s="5" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E95" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G95" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I95" s="5" t="s">
         <v>30</v>
@@ -8791,22 +8943,22 @@
     </row>
     <row r="96" hidden="1">
       <c r="C96" s="5" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E96" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G96" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I96" s="5" t="s">
         <v>34</v>
@@ -8826,22 +8978,22 @@
     </row>
     <row r="97" hidden="1">
       <c r="C97" s="5" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E97" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G97" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I97" s="5" t="s">
         <v>35</v>
@@ -8861,22 +9013,22 @@
     </row>
     <row r="98" hidden="1">
       <c r="C98" s="5" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E98" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="G98" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="I98" s="5" t="s">
         <v>30</v>
@@ -8896,22 +9048,22 @@
     </row>
     <row r="99" hidden="1">
       <c r="C99" s="5" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E99" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="G99" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="I99" s="5" t="s">
         <v>34</v>
@@ -8931,22 +9083,22 @@
     </row>
     <row r="100" hidden="1">
       <c r="C100" s="5" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E100" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="G100" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="I100" s="5" t="s">
         <v>35</v>
@@ -8966,22 +9118,22 @@
     </row>
     <row r="101" hidden="1">
       <c r="C101" s="5" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E101" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G101" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I101" s="5" t="s">
         <v>30</v>
@@ -9001,22 +9153,22 @@
     </row>
     <row r="102" hidden="1">
       <c r="C102" s="5" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E102" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G102" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I102" s="5" t="s">
         <v>34</v>
@@ -9036,22 +9188,22 @@
     </row>
     <row r="103" hidden="1">
       <c r="C103" s="5" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E103" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G103" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I103" s="5" t="s">
         <v>35</v>
@@ -9071,22 +9223,22 @@
     </row>
     <row r="104" hidden="1">
       <c r="C104" s="5" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E104" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G104" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I104" s="5" t="s">
         <v>30</v>
@@ -9106,22 +9258,22 @@
     </row>
     <row r="105" hidden="1">
       <c r="C105" s="5" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E105" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G105" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I105" s="5" t="s">
         <v>34</v>
@@ -9141,22 +9293,22 @@
     </row>
     <row r="106" hidden="1">
       <c r="C106" s="5" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E106" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G106" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I106" s="5" t="s">
         <v>35</v>
